--- a/assets/jsSummary.xlsx
+++ b/assets/jsSummary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="279">
   <si>
     <t>Model Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,18 +611,6 @@
   </si>
   <si>
     <t>getElementsByName()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回HTMLDocument对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回HTMLCollection&lt;HTMLDocument&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回HTMLCollection&lt;HTMLDocument&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,10 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>setNamedItem(node)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item(position)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,12 +967,180 @@
     <t>关闭网页输入流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>返回HTMLElement对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回HTMLCollection&lt;HTMLElement&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回HTMLCollection&lt;HTMLElement&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document, Element调用：返回HTMLElement对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document,DocumentFragment, Element调用：返回NodeList集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>querySelector(css选择器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qeurySelectorAll(css选择器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matchesSelector（css选择器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.body.matchesSelector('body') =&gt; true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childElementCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstElementChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastElementChild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previousElementSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextElementSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对不包含Text，Comment类型的节点的子元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classList属性(DOMTokenList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove(className)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add(className)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle(className)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contains(className)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有删除，无新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否包含class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setNamedItem(node)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasFocus()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素聚焦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acticeElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前获得焦点的元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compatMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS1Compat标准模式, BackCompat混杂模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading加载中，complete加载完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向head元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultCharset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面指定字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面默认字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data-前缀(dataset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,6 +1182,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1126,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1134,6 +1301,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1146,9 +1317,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14166,13 +14350,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14235,13 +14419,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14304,13 +14488,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14373,13 +14557,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14442,13 +14626,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14511,13 +14695,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14580,13 +14764,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14649,13 +14833,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>86845</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>12886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>380440</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>84602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14720,13 +14904,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>665629</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>79000</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>273424</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>154078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14736,8 +14920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11076454" y="13623550"/>
-          <a:ext cx="979395" cy="417978"/>
+          <a:off x="5437654" y="2305050"/>
+          <a:ext cx="979395" cy="592228"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14791,13 +14975,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>192182</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>157441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14807,8 +14991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12660407" y="13630274"/>
-          <a:ext cx="1169894" cy="414617"/>
+          <a:off x="7021607" y="2295525"/>
+          <a:ext cx="1169894" cy="605116"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14862,13 +15046,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>661146</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>4480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>79559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14933,13 +15117,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586627</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>62191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>250451</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>133907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15017,13 +15201,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>91326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>612962</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>166405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15088,13 +15272,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127187</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>21849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15159,13 +15343,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>618004</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>20730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281828</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>92446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15230,13 +15414,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128867</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>4481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>612961</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15301,13 +15485,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>116539</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>665629</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15319,8 +15503,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8820709" y="15794130"/>
-          <a:ext cx="4217336" cy="294154"/>
+          <a:off x="3181209" y="4477730"/>
+          <a:ext cx="4218736" cy="294154"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15347,13 +15531,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>369796</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>119906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>661145</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>43701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15393,13 +15577,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>654984</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>25774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15437,13 +15621,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>380440</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>48744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>618004</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15486,14 +15670,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>273424</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>116539</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>192182</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121583</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15504,9 +15688,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12055849" y="13832539"/>
-          <a:ext cx="604558" cy="5044"/>
+        <a:xfrm flipV="1">
+          <a:off x="6417049" y="2512358"/>
+          <a:ext cx="604558" cy="3081"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15533,13 +15717,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281828</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>128866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15582,13 +15766,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266139</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127187</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>25212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15630,13 +15814,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>42020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128867</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>42021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15677,13 +15861,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569258</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>82922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15748,13 +15932,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>132228</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>127744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15871,13 +16055,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>578784</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>16808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>91887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15942,13 +16126,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>86845</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>48745</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15990,13 +16174,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>131108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16034,13 +16218,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16103,13 +16287,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>64433</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16147,13 +16331,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28015</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>91326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16194,13 +16378,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>14006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16240,13 +16424,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>651062</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>62191</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16284,13 +16468,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>25212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16330,13 +16514,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16399,13 +16583,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16443,13 +16627,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586627</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>98048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16489,13 +16673,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>66678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569257</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>47064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16535,13 +16719,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16604,13 +16788,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16953,19 +17137,19 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -17264,10 +17448,10 @@
       </c>
     </row>
     <row r="31" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -17275,15 +17459,15 @@
       </c>
     </row>
     <row r="32" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="9"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="9"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="9" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -17291,29 +17475,29 @@
       </c>
     </row>
     <row r="34" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="9"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -17321,36 +17505,36 @@
       </c>
     </row>
     <row r="38" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
       <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
       <c r="F41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="2" t="s">
         <v>86</v>
       </c>
@@ -17531,10 +17715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S85"/>
+  <dimension ref="A2:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68:O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17554,10 +17738,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="N3" s="3" t="s">
@@ -17714,10 +17898,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" s="3"/>
+      <c r="N10" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -17737,11 +17923,11 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>155</v>
+      <c r="N11" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -17762,11 +17948,11 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>156</v>
+      <c r="N12" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -17787,11 +17973,11 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>157</v>
+      <c r="N13" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -17812,10 +17998,12 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="O14" s="11"/>
+      <c r="N14" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -17835,11 +18023,11 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>165</v>
+      <c r="N15" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -17860,12 +18048,10 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="N16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="7"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -17886,10 +18072,10 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -17911,10 +18097,10 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -17936,9 +18122,11 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -17958,11 +18146,11 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>172</v>
+      <c r="N20" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -17983,11 +18171,11 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>173</v>
+      <c r="N21" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -18008,12 +18196,10 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="N22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -18034,10 +18220,10 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -18059,10 +18245,10 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -18084,10 +18270,10 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="3" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -18109,10 +18295,10 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="3" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -18134,11 +18320,9 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>239</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O27" s="3"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -18159,10 +18343,10 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="3" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -18183,8 +18367,12 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="N29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -18204,8 +18392,12 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="N30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -18225,8 +18417,12 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="N31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -18246,10 +18442,12 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="O32" s="11"/>
+      <c r="N32" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -18270,10 +18468,10 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="3" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -18295,10 +18493,10 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="3" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -18320,10 +18518,10 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="3" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -18332,10 +18530,8 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
-      <c r="B36" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="11"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -18347,10 +18543,10 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="3" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -18359,13 +18555,9 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
-      <c r="B37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -18375,12 +18567,8 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -18388,12 +18576,8 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
-      <c r="B38" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -18404,10 +18588,8 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="O38" s="11"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -18415,12 +18597,8 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
-      <c r="B39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -18431,10 +18609,8 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O39" s="3"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -18442,12 +18618,8 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
-      <c r="B40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -18458,10 +18630,10 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O40" s="3"/>
+      <c r="N40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O40" s="7"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -18469,10 +18641,8 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
-      <c r="B41" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="11"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -18484,9 +18654,11 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O41" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -18494,12 +18666,8 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
-      <c r="B42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -18510,10 +18678,12 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="O42" s="11"/>
+      <c r="N42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
@@ -18521,15 +18691,9 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -18540,10 +18704,10 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="3" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
@@ -18552,12 +18716,10 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -18569,10 +18731,10 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -18582,12 +18744,12 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -18598,10 +18760,10 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -18611,10 +18773,10 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -18626,12 +18788,10 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="N46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O46" s="7"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -18640,10 +18800,10 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -18655,8 +18815,10 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="N47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O47" s="3"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -18665,10 +18827,10 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -18680,8 +18842,10 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="N48" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O48" s="3"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -18689,10 +18853,10 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
-      <c r="B49" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="B49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="7"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -18703,8 +18867,10 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="N49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O49" s="3"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -18713,10 +18879,10 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -18728,8 +18894,12 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="N50" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -18738,10 +18908,10 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -18753,10 +18923,12 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="O51" s="11"/>
+      <c r="N51" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>251</v>
+      </c>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -18765,10 +18937,10 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -18780,12 +18952,10 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="N52" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="O52" s="16"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -18794,10 +18964,10 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -18809,12 +18979,10 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="N53" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="O53" s="16"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -18823,10 +18991,10 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -18838,10 +19006,10 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="O54" s="11"/>
+      <c r="N54" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O54" s="16"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -18849,8 +19017,12 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -18861,12 +19033,10 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="N55" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="O55" s="17"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -18874,8 +19044,12 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -18886,11 +19060,11 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>206</v>
+      <c r="N56" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>264</v>
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -18899,9 +19073,13 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -18911,12 +19089,10 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="N57" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="O57" s="21"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -18924,8 +19100,12 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -18936,12 +19116,10 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>210</v>
-      </c>
+      <c r="N58" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O58" s="7"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -18949,8 +19127,12 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -18962,20 +19144,24 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O59" s="12" t="s">
-        <v>213</v>
+        <v>189</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
     </row>
-    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -18987,10 +19173,10 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>212</v>
+        <v>190</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -18999,8 +19185,12 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -19011,8 +19201,12 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
+      <c r="N61" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -19020,8 +19214,12 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="B62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -19032,8 +19230,12 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
+      <c r="N62" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -19053,8 +19255,10 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
+      <c r="N63" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="O63" s="20"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -19074,10 +19278,12 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="O64" s="11"/>
+      <c r="N64" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
@@ -19097,18 +19303,18 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>221</v>
+      <c r="N65" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>258</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
     </row>
-    <row r="66" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -19119,16 +19325,14 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L66" s="10"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>231</v>
+      <c r="N66" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -19149,11 +19353,11 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>230</v>
+      <c r="N67" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
@@ -19174,8 +19378,12 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="N68" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="O68" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
@@ -19195,8 +19403,8 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
@@ -19216,10 +19424,8 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="O70" s="11"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
@@ -19239,12 +19445,8 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
@@ -19252,8 +19454,6 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -19264,12 +19464,8 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
@@ -19277,8 +19473,6 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -19289,12 +19483,8 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
@@ -19302,8 +19492,6 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -19314,10 +19502,8 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="O74" s="11"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
@@ -19325,8 +19511,6 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -19337,10 +19521,8 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O75" s="3"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
@@ -19348,8 +19530,6 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -19360,10 +19540,10 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O76" s="3"/>
+      <c r="N76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O76" s="7"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
@@ -19371,8 +19551,6 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -19384,9 +19562,11 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O77" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
@@ -19394,8 +19574,6 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -19406,8 +19584,12 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
+      <c r="N78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
@@ -19415,8 +19597,6 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -19427,8 +19607,10 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
+      <c r="N79" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O79" s="7"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
@@ -19448,8 +19630,12 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
+      <c r="N80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
@@ -19469,8 +19655,12 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
+      <c r="N81" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
@@ -19487,13 +19677,15 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="5" t="s">
-        <v>232</v>
-      </c>
+      <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
+      <c r="N82" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
@@ -19513,8 +19705,12 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
+      <c r="N83" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
@@ -19534,14 +19730,18 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
+      <c r="N84" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -19555,19 +19755,591 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
+      <c r="N85" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
     </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O89" s="7"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L91" s="12"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O95" s="7"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O99" s="7"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O100" s="3"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O101" s="3"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O102" s="3"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K66:L66"/>
+  <mergeCells count="3">
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="O51:O55"/>
+    <mergeCell ref="O56:O57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/jsSummary.xlsx
+++ b/assets/jsSummary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="288">
   <si>
     <t>Model Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,12 +1135,48 @@
     <t>自定义属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>innerHTML()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换或返回调用者的所有子元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outerHTML()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换或返回包含自身+子元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsertAdjacentHTML()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数beforebegin,afterbegin,beforeend,afterend之一，相继对应添加previosSibling, firstChild,lastChild,lastSibling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publicId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internalSubset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1233,21 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1293,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1304,6 +1355,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1317,8 +1376,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,12 +1385,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14350,13 +14409,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14419,13 +14478,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14488,13 +14547,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15117,13 +15176,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586627</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>62191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>250451</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>133907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15201,13 +15260,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>91326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>612962</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>166405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15272,13 +15331,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127187</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>21849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15343,13 +15402,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>618004</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>20730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281828</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>92446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15577,13 +15636,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>654984</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>25774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15627,7 +15686,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>618004</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15717,13 +15776,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281828</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>128866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15766,13 +15825,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266139</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127187</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>25212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15861,13 +15920,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569258</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>82922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15932,13 +15991,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>132228</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>127744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16055,13 +16114,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>578784</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>16808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>91887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16331,13 +16390,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28015</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>91326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16378,13 +16437,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>14006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16424,13 +16483,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>651062</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>62191</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16468,13 +16527,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>25212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16514,13 +16573,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16583,13 +16642,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16627,13 +16686,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586627</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>98048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16673,13 +16732,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>66678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569257</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>47064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16719,13 +16778,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16788,13 +16847,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16826,6 +16885,44 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4000500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>59967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="16821151"/>
+          <a:ext cx="3952875" cy="364766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17448,10 +17545,10 @@
       </c>
     </row>
     <row r="31" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -17459,15 +17556,15 @@
       </c>
     </row>
     <row r="32" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="11"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="15" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -17475,29 +17572,29 @@
       </c>
     </row>
     <row r="34" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="11"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -17505,36 +17602,36 @@
       </c>
     </row>
     <row r="38" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="2" t="s">
         <v>86</v>
       </c>
@@ -17715,10 +17812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S110"/>
+  <dimension ref="A2:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68:O68"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96:O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17898,10 +17995,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="10" t="s">
         <v>266</v>
       </c>
       <c r="P10" s="5"/>
@@ -17923,10 +18020,10 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="10" t="s">
         <v>271</v>
       </c>
       <c r="P11" s="5"/>
@@ -17948,10 +18045,10 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="10" t="s">
         <v>272</v>
       </c>
       <c r="P12" s="5"/>
@@ -17973,10 +18070,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="9" t="s">
         <v>270</v>
       </c>
       <c r="P13" s="5"/>
@@ -17998,10 +18095,10 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="10" t="s">
         <v>275</v>
       </c>
       <c r="P14" s="5"/>
@@ -18023,10 +18120,10 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="10" t="s">
         <v>276</v>
       </c>
       <c r="P15" s="5"/>
@@ -18146,10 +18243,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="9" t="s">
         <v>240</v>
       </c>
       <c r="P20" s="5"/>
@@ -18171,10 +18268,10 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="10" t="s">
         <v>241</v>
       </c>
       <c r="P21" s="5"/>
@@ -18894,10 +18991,10 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="13" t="s">
+      <c r="N50" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="O50" s="14" t="s">
+      <c r="O50" s="10" t="s">
         <v>245</v>
       </c>
       <c r="P50" s="5"/>
@@ -18923,10 +19020,10 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="14" t="s">
+      <c r="N51" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="O51" s="15" t="s">
+      <c r="O51" s="19" t="s">
         <v>251</v>
       </c>
       <c r="P51" s="5"/>
@@ -18952,10 +19049,10 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="14" t="s">
+      <c r="N52" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="O52" s="16"/>
+      <c r="O52" s="20"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -18979,10 +19076,10 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="14" t="s">
+      <c r="N53" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="O53" s="16"/>
+      <c r="O53" s="20"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -19006,10 +19103,10 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="O54" s="16"/>
+      <c r="O54" s="20"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -19033,10 +19130,10 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="14" t="s">
+      <c r="N55" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O55" s="17"/>
+      <c r="O55" s="21"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -19060,10 +19157,10 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="13" t="s">
+      <c r="N56" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="O56" s="21" t="s">
+      <c r="O56" s="22" t="s">
         <v>264</v>
       </c>
       <c r="P56" s="5"/>
@@ -19089,10 +19186,10 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="O57" s="21"/>
+      <c r="O57" s="22"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -19116,10 +19213,12 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="O58" s="7"/>
+      <c r="N58" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>280</v>
+      </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -19143,18 +19242,18 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>193</v>
+      <c r="N59" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
         <v>126</v>
@@ -19172,11 +19271,11 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>194</v>
+      <c r="N60" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -19201,12 +19300,10 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="N61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O61" s="7"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -19231,10 +19328,10 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
@@ -19243,8 +19340,6 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -19255,10 +19350,12 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="O63" s="20"/>
+      <c r="N63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -19266,8 +19363,6 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -19278,11 +19373,11 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="O64" s="14" t="s">
-        <v>257</v>
+      <c r="N64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
@@ -19291,8 +19386,6 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -19303,11 +19396,11 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>258</v>
+      <c r="N65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
@@ -19328,12 +19421,10 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>259</v>
-      </c>
+      <c r="N66" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="O66" s="13"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
@@ -19353,11 +19444,11 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>260</v>
+      <c r="N67" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
@@ -19378,11 +19469,11 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="O68" s="18" t="s">
-        <v>278</v>
+      <c r="N68" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -19403,8 +19494,12 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
+      <c r="N69" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>259</v>
+      </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
@@ -19424,8 +19519,12 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
+      <c r="N70" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
@@ -19445,8 +19544,12 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
+      <c r="N71" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
@@ -19454,6 +19557,8 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -19464,8 +19569,8 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
@@ -19473,6 +19578,8 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -19483,8 +19590,8 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
@@ -19492,6 +19599,8 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -19502,8 +19611,8 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
@@ -19540,10 +19649,8 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O76" s="7"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
@@ -19561,12 +19668,8 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
@@ -19584,12 +19687,8 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
@@ -19608,7 +19707,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="7" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="O79" s="7"/>
       <c r="P79" s="5"/>
@@ -19618,8 +19717,6 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -19631,10 +19728,10 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
@@ -19643,8 +19740,6 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -19656,10 +19751,10 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="3" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
@@ -19668,8 +19763,6 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -19680,12 +19773,10 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="N82" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O82" s="7"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
@@ -19706,10 +19797,10 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
@@ -19731,17 +19822,17 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -19756,10 +19847,10 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
@@ -19780,8 +19871,12 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
+      <c r="N86" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
@@ -19801,14 +19896,18 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
+      <c r="N87" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -19822,8 +19921,12 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
+      <c r="N88" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
@@ -19843,10 +19946,8 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O89" s="7"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
@@ -19866,18 +19967,14 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
     </row>
-    <row r="91" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -19888,17 +19985,11 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="L91" s="12"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
@@ -19918,12 +20009,10 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="N92" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O92" s="7"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
@@ -19943,14 +20032,18 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="3"/>
-      <c r="O93" s="3"/>
+      <c r="N93" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -19961,11 +20054,17 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="K94" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="L94" s="18"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
+      <c r="N94" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
@@ -19985,10 +20084,12 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O95" s="7"/>
+      <c r="N95" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
@@ -20008,12 +20109,10 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="N96" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="O96" s="3"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
@@ -20033,12 +20132,10 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="N97" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="O97" s="3"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
@@ -20058,12 +20155,10 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="N98" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="N98" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="O98" s="3"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
@@ -20083,10 +20178,8 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="N99" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O99" s="7"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
@@ -20106,10 +20199,10 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O100" s="3"/>
+      <c r="N100" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O100" s="7"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
@@ -20130,9 +20223,11 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O101" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
@@ -20153,9 +20248,11 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O102" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
@@ -20175,8 +20272,12 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
+      <c r="N103" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
@@ -20196,8 +20297,10 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
+      <c r="N104" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O104" s="7"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
@@ -20217,8 +20320,10 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
+      <c r="N105" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O105" s="3"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
@@ -20238,8 +20343,10 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
+      <c r="N106" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O106" s="3"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
@@ -20256,13 +20363,13 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5" t="s">
-        <v>228</v>
-      </c>
+      <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
+      <c r="N107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O107" s="3"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
@@ -20331,9 +20438,116 @@
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
     </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K94:L94"/>
     <mergeCell ref="O51:O55"/>
     <mergeCell ref="O56:O57"/>
   </mergeCells>

--- a/assets/jsSummary.xlsx
+++ b/assets/jsSummary.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文件函数等命名规范" sheetId="5" r:id="rId1"/>
     <sheet name="jsSummary" sheetId="13" r:id="rId2"/>
     <sheet name="DOM" sheetId="16" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="353">
   <si>
     <t>Model Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1171,12 +1174,300 @@
     <t>internalSubset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>document.implemetation(method)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM2 + DOM3新拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDocumentType(fileTypeName, publicId, systemId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档类型名称，publicId, systemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createDucment(nameSpaceURI, fileTagName, fileType)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespaceURI,文档元素的标签名，新建文档的文档类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createHTMLDcoument()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个完整的HTML文档。包括 &lt;html&gt; &lt;head&gt; &lt;title&gt; &lt;body&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSupport(feature, version)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测是否支持feature特性的version版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSameNode(node)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同返回true,是同一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEqualNode(node)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相等返回true,类型相等，属性相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setUserData(operType, key, value, srcNode, destNode)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据属性获取CSSValue对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用页面样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>href</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果样式表是link方式引入，则是样式表的URL.否则null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前样式表支持的所有媒体类型的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentStyleSheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前样式表中使用@import引入的情况下，这个属性是一个指向导入它的样式表的指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向拥有当前样式表的节点的指针。样式表可能是HTML中`link`或`style`(xml是`style`)引入的。如果是使用@import引入，则为null。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerNode的title属性的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式表中的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用`@import`导入，这个属性就是一个指针。指向表示导入的规则。否则为null.IE不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteRule(index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertRule(rule, index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除cssRules集合指定的规则。IE使用removeRule(index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向cssRules集合中指定位置的规则。IE不支持。IE使用addRule()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回整条规则对应的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前规则如果是套入的规则，该属性引用的就是导入规则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示规则类型的常量值。对于样式规则，这个值为1.IE不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前规则如果是套入的规则，该属性引用的就是导入规则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentStyleSheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前规则所属的样式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectorText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回当前规则的选择符文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回整条规则对应的文本。IE不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css属性个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPropertyCSSValue(propertyname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gePropertyPriority(propertyname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取优先级。 Important || ''</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPropertyValue(propertyname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回给定属性的字符串值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item(index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定位置的css属性的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeProperty(propertyname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从样式中删除给定的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setProperty(propertyName, value, priority)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将给定属性设置为相应的值，并加上优先权标志('important'或空字符串)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSSStyleSheet集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document上获取：
+document.styleSheet =&gt;CSSStyleSheet 集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过link获取
+var link = document.getElementsByTagName('link').item(0);
+var sheet = link.sheet || link.styleSheet;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1543,32 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1344,7 +1661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1363,6 +1680,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1388,11 +1727,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14409,13 +14743,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14478,13 +14812,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14547,13 +14881,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14616,13 +14950,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14685,13 +15019,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14892,13 +15226,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>86845</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>12886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>380440</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>84602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15105,13 +15439,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>661146</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>4480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>79559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15176,13 +15510,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586627</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>62191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>250451</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>133907</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15260,13 +15594,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>91326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>612962</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>166405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15331,13 +15665,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127187</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>21849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15402,13 +15736,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>618004</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>20730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281828</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>92446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15473,13 +15807,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128867</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>4481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>612961</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15550,7 +15884,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>665629</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15590,13 +15924,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>369796</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>119906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>661145</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>43701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15636,13 +15970,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>654984</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>25774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15680,13 +16014,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>380440</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>48744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>618004</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15776,13 +16110,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281828</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>128866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>56588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15825,13 +16159,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266139</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>127187</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>25212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15873,13 +16207,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>42020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>128867</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>42021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15920,13 +16254,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569258</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>82922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15991,13 +16325,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>132228</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>127744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16114,13 +16448,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>578784</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>16808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>91887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16185,13 +16519,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>86845</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>48745</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16277,13 +16611,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16346,13 +16680,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>64433</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16390,13 +16724,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>71717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28015</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>91326</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16437,13 +16771,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>14006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16483,13 +16817,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>651062</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>62191</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16527,13 +16861,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>611281</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>25212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16573,13 +16907,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16642,13 +16976,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16686,13 +17020,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>586627</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>98048</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16732,13 +17066,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>66678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>569257</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>47064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16778,13 +17112,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16847,13 +17181,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16890,15 +17224,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>59967</xdr:rowOff>
+      <xdr:colOff>3971925</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>79017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16915,7 +17249,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12630150" y="16821151"/>
+          <a:off x="13554075" y="17297401"/>
           <a:ext cx="3952875" cy="364766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16923,6 +17257,2190 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4905375</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="13392150"/>
+          <a:ext cx="7934325" cy="3752849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4752975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790699" y="13544549"/>
+          <a:ext cx="7639051" cy="3486151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="2085975"/>
+          <a:ext cx="933450" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>cssRules | rules</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2343150" y="2181225"/>
+          <a:ext cx="76200" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="3914776"/>
+          <a:ext cx="428625" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>style</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2276475" y="4114800"/>
+          <a:ext cx="76200" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2981325</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="8562975"/>
+          <a:ext cx="4819650" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="8705850"/>
+          <a:ext cx="4457700" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>content</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="8705850"/>
+          <a:ext cx="152400" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="10658475"/>
+          <a:ext cx="4457700" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="10677525"/>
+          <a:ext cx="295275" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="10363200"/>
+          <a:ext cx="152400" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3486150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="8686800"/>
+          <a:ext cx="5838825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3648075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="10668000"/>
+          <a:ext cx="5838825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3000375" y="8429625"/>
+          <a:ext cx="9525" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7334250" y="8429625"/>
+          <a:ext cx="9525" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3276600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="8705850"/>
+          <a:ext cx="19050" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7962900" y="10020300"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4136092</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="9553575"/>
+          <a:ext cx="1088092" cy="227479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientHeight</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="11134725"/>
+          <a:ext cx="1381125" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5600700" y="11134725"/>
+          <a:ext cx="1714500" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3171825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>840442</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="11068050"/>
+          <a:ext cx="1088092" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ClientWidth</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2981325</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="8562975"/>
+          <a:ext cx="4819650" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="8705850"/>
+          <a:ext cx="4457700" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>content</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2657475</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="8705850"/>
+          <a:ext cx="152400" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="10658475"/>
+          <a:ext cx="4457700" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="10677525"/>
+          <a:ext cx="295275" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2647950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="10363200"/>
+          <a:ext cx="152400" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1219200" y="13887450"/>
+          <a:ext cx="5657850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1590676</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="13306425"/>
+          <a:ext cx="1" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2735917</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>84604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="13601700"/>
+          <a:ext cx="1088092" cy="227479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>offsetTop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="14154150"/>
+          <a:ext cx="247650" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4686300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820025" y="14058901"/>
+          <a:ext cx="1543050" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>pffsetParent:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>定位元素</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接连接符 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="13249275"/>
+          <a:ext cx="0" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="13535025"/>
+          <a:ext cx="5838825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4096" name="直接箭头连接符 4095"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2667000" y="14163675"/>
+          <a:ext cx="161925" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142315</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4099" name="直接箭头连接符 4098"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2905125" y="13525500"/>
+          <a:ext cx="9525" cy="189940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657351</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4101" name="直接箭头连接符 4100"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2905125" y="13715440"/>
+          <a:ext cx="9526" cy="162486"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17221,7 +19739,7 @@
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
@@ -17233,7 +19751,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D8" s="7" t="s">
         <v>0</v>
       </c>
@@ -17250,7 +19768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
@@ -17267,7 +19785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
@@ -17284,7 +19802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
@@ -17301,7 +19819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
@@ -17318,7 +19836,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
@@ -17335,7 +19853,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
@@ -17352,7 +19870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
@@ -17369,7 +19887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
@@ -17386,7 +19904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
@@ -17403,7 +19921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
@@ -17420,7 +19938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
@@ -17437,7 +19955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
@@ -17454,7 +19972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
@@ -17471,7 +19989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
@@ -17488,7 +20006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
@@ -17505,7 +20023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
@@ -17522,7 +20040,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:8" ht="17.100000000000001" customHeight="1">
       <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
@@ -17539,99 +20057,99 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:8">
       <c r="D30" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="15" t="s">
+    <row r="31" spans="4:8" ht="17.100000000000001" customHeight="1">
+      <c r="D31" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="27" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="4:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="17"/>
-      <c r="E32" s="16"/>
+    <row r="32" spans="4:8" ht="17.100000000000001" customHeight="1">
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="17"/>
-      <c r="E33" s="15" t="s">
+    <row r="33" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D33" s="29"/>
+      <c r="E33" s="27" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+    <row r="34" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+    <row r="35" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="17"/>
-      <c r="E36" s="16"/>
+    <row r="36" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D36" s="29"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="17"/>
-      <c r="E37" s="15" t="s">
+    <row r="37" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D37" s="29"/>
+      <c r="E37" s="27" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+    <row r="38" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+    <row r="39" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+    <row r="40" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+    <row r="41" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+    <row r="42" spans="4:6" ht="17.100000000000001" customHeight="1">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="2" t="s">
         <v>86</v>
       </c>
@@ -17656,7 +20174,7 @@
       <selection activeCell="R257" sqref="R257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="14" width="9" style="1"/>
     <col min="15" max="15" width="3.875" style="1" customWidth="1"/>
@@ -17664,42 +20182,42 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:6">
       <c r="F46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:5">
       <c r="E56" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:5">
       <c r="E66" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="10:10">
       <c r="J143" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="153" spans="5:11">
       <c r="K153" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="154" spans="5:11">
       <c r="E154" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="156" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="156" spans="5:11">
       <c r="J156" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="157" spans="5:11">
       <c r="F157" s="1" t="s">
         <v>95</v>
       </c>
@@ -17707,96 +20225,96 @@
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:3">
       <c r="C163" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="281" spans="15:18">
       <c r="O281" s="5"/>
       <c r="P281" s="5"/>
       <c r="Q281" s="5"/>
       <c r="R281" s="5"/>
     </row>
-    <row r="282" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="282" spans="15:18">
       <c r="O282" s="5"/>
       <c r="P282" s="5"/>
       <c r="Q282" s="5"/>
       <c r="R282" s="5"/>
     </row>
-    <row r="283" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="283" spans="15:18">
       <c r="O283" s="5"/>
       <c r="P283" s="5"/>
       <c r="Q283" s="5"/>
       <c r="R283" s="5"/>
     </row>
-    <row r="284" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="284" spans="15:18">
       <c r="O284" s="5"/>
       <c r="P284" s="5"/>
       <c r="Q284" s="5"/>
       <c r="R284" s="5"/>
     </row>
-    <row r="285" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="285" spans="15:18">
       <c r="O285" s="5"/>
       <c r="P285" s="5"/>
       <c r="Q285" s="5"/>
       <c r="R285" s="5"/>
     </row>
-    <row r="286" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="286" spans="15:18">
       <c r="O286" s="5"/>
       <c r="P286" s="5"/>
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
     </row>
-    <row r="287" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="287" spans="15:18">
       <c r="O287" s="5"/>
       <c r="P287" s="5"/>
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
     </row>
-    <row r="288" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="288" spans="15:18">
       <c r="O288" s="5"/>
       <c r="P288" s="5"/>
       <c r="Q288" s="5"/>
       <c r="R288" s="5"/>
     </row>
-    <row r="289" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="289" spans="15:18">
       <c r="O289" s="5"/>
       <c r="P289" s="5"/>
       <c r="Q289" s="5"/>
       <c r="R289" s="5"/>
     </row>
-    <row r="290" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="290" spans="15:18">
       <c r="O290" s="5"/>
       <c r="P290" s="5"/>
       <c r="Q290" s="5"/>
       <c r="R290" s="5"/>
     </row>
-    <row r="291" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="291" spans="15:18">
       <c r="O291" s="5"/>
       <c r="P291" s="5"/>
       <c r="Q291" s="5"/>
       <c r="R291" s="5"/>
     </row>
-    <row r="292" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="292" spans="15:18">
       <c r="O292" s="5"/>
       <c r="P292" s="5"/>
       <c r="Q292" s="5"/>
       <c r="R292" s="5"/>
     </row>
-    <row r="293" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="293" spans="15:18">
       <c r="O293" s="5"/>
       <c r="P293" s="5"/>
       <c r="Q293" s="5"/>
       <c r="R293" s="5"/>
     </row>
-    <row r="294" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="294" spans="15:18">
       <c r="O294" s="5"/>
       <c r="P294" s="5"/>
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
     </row>
-    <row r="295" spans="15:18" x14ac:dyDescent="0.15">
+    <row r="295" spans="15:18">
       <c r="O295" s="5"/>
       <c r="P295" s="5"/>
       <c r="Q295" s="5"/>
@@ -17812,17 +20330,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S115"/>
+  <dimension ref="A2:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96:O99"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
@@ -17834,13 +20352,13 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="N2" s="7" t="s">
         <v>136</v>
       </c>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="N3" s="3" t="s">
         <v>142</v>
       </c>
@@ -17848,7 +20366,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="N4" s="3" t="s">
         <v>137</v>
       </c>
@@ -17856,7 +20374,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -17881,7 +20399,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -17906,7 +20424,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -17931,7 +20449,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -17956,7 +20474,7 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -17981,7 +20499,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -18006,7 +20524,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -18031,7 +20549,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -18056,7 +20574,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -18081,7 +20599,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -18106,7 +20624,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -18131,7 +20649,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -18154,7 +20672,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -18179,7 +20697,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -18204,7 +20722,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -18229,7 +20747,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -18254,7 +20772,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -18279,7 +20797,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -18302,7 +20820,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -18327,7 +20845,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -18352,7 +20870,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -18377,7 +20895,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -18402,7 +20920,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -18416,16 +20934,16 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="O27" s="3"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -18450,7 +20968,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -18475,7 +20993,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -18500,7 +21018,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -18525,7 +21043,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -18550,7 +21068,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -18575,7 +21093,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -18600,7 +21118,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -18625,7 +21143,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -18650,7 +21168,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -18664,14 +21182,18 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="N37" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>289</v>
+      </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -18685,14 +21207,18 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="N38" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>291</v>
+      </c>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -18706,14 +21232,18 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="N39" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>293</v>
+      </c>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -18727,16 +21257,18 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="O40" s="7"/>
+      <c r="N40" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>295</v>
+      </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -18750,18 +21282,14 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18775,18 +21303,16 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="N42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O42" s="7"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -18801,22 +21327,20 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19">
       <c r="A44" s="5"/>
-      <c r="B44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -18828,25 +21352,21 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19">
       <c r="A45" s="5"/>
-      <c r="B45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -18857,24 +21377,22 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19">
       <c r="A46" s="5"/>
-      <c r="B46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="B46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -18885,24 +21403,26 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="O46" s="7"/>
+      <c r="N46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -18913,21 +21433,23 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O47" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19">
       <c r="A48" s="5"/>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -18939,21 +21461,23 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O48" s="3"/>
+      <c r="N48" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O48" s="7"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19">
       <c r="A49" s="5"/>
-      <c r="B49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="7"/>
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -18965,7 +21489,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="5"/>
@@ -18973,13 +21497,13 @@
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19">
       <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -18991,25 +21515,21 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>245</v>
-      </c>
+      <c r="N50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O50" s="3"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19">
       <c r="A51" s="5"/>
-      <c r="B51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="B51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="7"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -19020,24 +21540,22 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>251</v>
-      </c>
+      <c r="N51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -19049,22 +21567,24 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O52" s="20"/>
+      <c r="N52" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19">
       <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -19077,21 +21597,23 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O53" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="O53" s="31" t="s">
+        <v>251</v>
+      </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -19104,21 +21626,21 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="O54" s="20"/>
+        <v>247</v>
+      </c>
+      <c r="O54" s="32"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -19131,21 +21653,21 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="O55" s="21"/>
+        <v>248</v>
+      </c>
+      <c r="O55" s="32"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -19157,26 +21679,24 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>264</v>
-      </c>
+      <c r="N56" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O56" s="32"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19">
       <c r="A57" s="5"/>
-      <c r="B57" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
@@ -19187,21 +21707,21 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="O57" s="22"/>
+        <v>250</v>
+      </c>
+      <c r="O57" s="33"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19">
       <c r="A58" s="5"/>
       <c r="B58" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -19213,26 +21733,26 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>280</v>
+      <c r="N58" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>264</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19">
       <c r="A59" s="5"/>
-      <c r="B59" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="5"/>
+      <c r="B59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -19243,23 +21763,21 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>282</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="O59" s="34"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
     </row>
-    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -19272,23 +21790,23 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="O60" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -19300,22 +21818,24 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="O61" s="7"/>
+      <c r="N61" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="27">
       <c r="A62" s="5"/>
       <c r="B62" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -19327,19 +21847,25 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>193</v>
+      <c r="N62" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19">
       <c r="A63" s="5"/>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -19350,19 +21876,23 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="N63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="O63" s="7"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19">
       <c r="A64" s="5"/>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -19374,18 +21904,24 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="3" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19">
       <c r="A65" s="5"/>
+      <c r="B65" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>297</v>
+      </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -19397,20 +21933,24 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19">
       <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>299</v>
+      </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -19421,19 +21961,25 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O66" s="13"/>
+      <c r="N66" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19">
       <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -19444,21 +21990,23 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="O67" s="10" t="s">
-        <v>257</v>
+      <c r="N67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="22.5">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="17"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -19469,18 +22017,16 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O68" s="10" t="s">
-        <v>258</v>
-      </c>
+      <c r="N68" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="O68" s="13"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -19495,17 +22041,17 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -19520,17 +22066,17 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -19545,17 +22091,17 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="10" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -19569,14 +22115,18 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
+      <c r="N72" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>260</v>
+      </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -19590,14 +22140,18 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
+      <c r="N73" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -19618,8 +22172,10 @@
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19">
       <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -19630,15 +22186,17 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19">
       <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -19649,14 +22207,14 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19">
       <c r="A77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -19675,7 +22233,7 @@
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19">
       <c r="A78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -19694,7 +22252,7 @@
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19">
       <c r="A79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -19706,16 +22264,14 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O79" s="7"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19">
       <c r="A80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -19727,18 +22283,14 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19">
       <c r="A81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -19750,18 +22302,16 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="N81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O81" s="7"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19">
       <c r="A82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -19773,19 +22323,19 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="O82" s="7"/>
+      <c r="N82" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19">
       <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -19797,20 +22347,18 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19">
       <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -19821,18 +22369,16 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="N84" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="O84" s="7"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -19847,17 +22393,17 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -19872,17 +22418,17 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -19897,17 +22443,17 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -19922,17 +22468,17 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -19946,14 +22492,18 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
+      <c r="N89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="27">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -19967,14 +22517,18 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
+      <c r="N90" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -19995,7 +22549,7 @@
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -20009,16 +22563,14 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O92" s="7"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -20032,18 +22584,14 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
     </row>
-    <row r="94" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -20054,23 +22602,19 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="L94" s="18"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="N94" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O94" s="7"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -20085,17 +22629,17 @@
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="3" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="25.5" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -20106,19 +22650,23 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
+      <c r="K96" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L96" s="30"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="O96" s="3"/>
+      <c r="N96" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -20132,16 +22680,18 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="O97" s="3"/>
+      <c r="N97" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -20155,8 +22705,8 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="N98" s="25" t="s">
-        <v>287</v>
+      <c r="N98" s="16" t="s">
+        <v>285</v>
       </c>
       <c r="O98" s="3"/>
       <c r="P98" s="5"/>
@@ -20164,7 +22714,7 @@
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -20178,14 +22728,16 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="N99" s="3"/>
+      <c r="N99" s="17" t="s">
+        <v>286</v>
+      </c>
       <c r="O99" s="3"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -20199,16 +22751,16 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O100" s="7"/>
+      <c r="N100" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="O100" s="3"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -20222,18 +22774,14 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
-      <c r="N101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -20247,18 +22795,16 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="N102" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O102" s="7"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -20273,17 +22819,17 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="3" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -20297,16 +22843,18 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
-      <c r="N104" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O104" s="7"/>
+      <c r="N104" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -20321,15 +22869,17 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O105" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -20343,16 +22893,16 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
-      <c r="N106" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="O106" s="3"/>
+      <c r="N106" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O106" s="7"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -20367,7 +22917,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O107" s="3"/>
       <c r="P107" s="5"/>
@@ -20375,7 +22925,7 @@
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -20389,14 +22939,16 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
+      <c r="N108" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="O108" s="3"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -20410,14 +22962,16 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
+      <c r="N109" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O109" s="3"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -20438,7 +22992,7 @@
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -20459,7 +23013,7 @@
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -20470,9 +23024,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5" t="s">
-        <v>228</v>
-      </c>
+      <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -20482,7 +23034,7 @@
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -20503,7 +23055,7 @@
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -20514,7 +23066,9 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="K114" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -20524,7 +23078,7 @@
       <c r="R114" s="5"/>
       <c r="S114" s="5"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -20545,15 +23099,330 @@
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
     </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="O51:O55"/>
-    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="O53:O57"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="92.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:5" ht="22.5">
+      <c r="D3" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="33.75">
+      <c r="D4" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="19.5" customHeight="1">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="15">
+      <c r="D25" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" ht="21.75" customHeight="1">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/jsSummary.xlsx
+++ b/assets/jsSummary.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文件函数等命名规范" sheetId="5" r:id="rId1"/>
     <sheet name="jsSummary" sheetId="13" r:id="rId2"/>
     <sheet name="DOM" sheetId="16" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId5"/>
+    <sheet name="DOM3" sheetId="17" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="439">
   <si>
     <t>Model Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1462,12 +1461,380 @@
 var sheet = link.sheet || link.styleSheet;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UI事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当页面完全加载后在window上面触发，当所有框架加载完毕在框架上触发，当所有image加载完毕在&lt;img&gt;元素上触发。当内嵌入的内容加载完毕时在&lt;object&gt;元素上触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当页面完全卸载后在window上触发。放所有框架完全卸载在框架上触发。与load相反。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户停止下载过程中，如果嵌入的内容没有加载完，则在&lt;object&gt;元素上面触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当发送javascript错误时在window上触发。当无法加载图像时在&lt;img&gt;元素上面触发。当无法加载嵌入内容时在&lt;object&gt;元素上面触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户选择文本框(&lt;input&gt;, &lt;texterea&gt;)中的一或多个字符时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当窗口或框架的大小发送变化时在window或框架上触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户滚动带滚动条的元素中的内容时，在该元素上触发。&lt;body&gt;元素中包含所加载页面的滚动条。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbclick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标光标从元素外部首次移动到元素范围内部时触发。不冒泡。而且如果是移动到自己的后代是不会触发的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素失去焦点出发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素获得焦点时触发。事件不会冒泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在元素获取焦点时触发，事件会冒泡，等同于HTML的focus。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在元素时区焦点时触发，等同于HTML的blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键单击或按下回车时触发。以为这onclick可能由键盘或鼠标触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户按下任意鼠标键。不能通过键盘触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户释放鼠标按钮时触发。不能通过键盘触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在位于元素上方的鼠标光标移动到元素范围之外时触发。不冒泡。而且如果移动到自己的后代是不会触发的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在鼠标指针位于一个元素上方，然后用户将其移动到另外一个元素(包含自己的后代子元素)触发。不能通过键盘触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在鼠标指针位于一个元素外部，然后用户将其首次移动到另外一个元素之内时触发。不能通过键盘触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当鼠标指针在元素内部移动时重复地触发，不能通过键盘触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标滚轮事件,类似于MAC的触控板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousedown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseleave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousemove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousewheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event: 
+- screenX, screenY, clientX, ClientY, pageX, pageY
+- altKey, shifKey, metaKy,ctrlKey
+- target, relatedTarget(toElement, fromElement)
+- button: (0左按钮, 1中间按钮,2右按钮)
+- detail: 位置点击次数
+- wheelDelta: mousewheel 的滚轮位置，用来辨别方向。有兼容问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘与文本事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keydown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keypress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户按下键盘上任意的字符键时触发。按住不放重复触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘任意键按下触发，如果按住不放，会重复触发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户释放键盘上的键时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event
+- keyCode:数字字符字符键，与ASCII码中对应小写字母或数字的编码相同.如字母A的keyCode是65 
+- charCode: 只有keypress事件的event才会有charCode属性，表示按下的那个键代表字符的ASCII编码。
+- key: 按下某个字符键就是相应的文本，非字符键就是键名（例如Shift, Alt）
+- char: 按下字符键时相应的文本，非字符键时null
+- location: 数字，表示按键区域。0：默认键盘，1：左侧位置，2右侧位置，3：数字键盘，4：移动设备键盘（虚拟键盘），5手柄
+- getModifierState(): 传入修改键（Shift,Alt,Ctrl,Meta），如果等于从闯入的修改键，返回true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户在可编辑区域(input, textera)中输入字符时，就会触发这个事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event:
+- data:值是用户输入的字符（非字符编码）。按下什么data就存什么（按S存S）
+- inputMethod:表示文字输入到文本框中的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变动事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMNodeInserted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMNodeInsertedIntoDocument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMNodeRemoved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMNodeRemovedFromDocument</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMSubtreeModified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMAttrModified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMCharacterDataModified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个节点作为子节点被插入到另一个节点中时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个节点被直接插入文档，或通过子树间接插入文档之后触发。这个事件在DOMNodeInserted之后触发；不冒泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在节点从其父节点中被移除时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个节点被直接从文档中移除，或通过子树间接从文档中移除之前触发。这个事件在DOMNodeRemoved之后触发；不冒泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在DOM结构中发生任何变化时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在特性被修改之后触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文本节点的值发声变化时触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event:
+- target: 被删或插入的节点
+- relatedTarget: 包含目标节点父节点的引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contexmenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文菜单事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeunload事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在页面卸载前可以阻止这一操作,会在浏览器卸载页面之前触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMContentLoaded事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形成完整的DOM树后就会触发。不理会图像，javascrip文件，css文件是否下载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readystatechange事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+支持该事件的对象有readystate属性，该属性的值有以下几个
+- uninitialized(未初始化)： 对象存在但尚未初始化
+- loading（正在加载): 对象正在加载数据
+- loaded(加载完毕)：对象加载数据完成。
+- interactice(交互)：可以操作对象了，但还没有完全加载。
+- complete(完成)：对象已经加载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageshow 和pagehide事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户使用浏览器的‘后退’或‘前进’的时候，为加快页面的转换速度，产生了一个‘往返缓存(back-forward cache , 或 bfcache)’.这个缓存不仅保留页面数据，还保留DOM和Javascript状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasChange事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL的参数列表(#后面的所有字符串)发送变化时触发。hasChange必须添加到window对象上。event有两个额外的属性：
+- oldURL: 修改前的url
+- newURL: 修改后的url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标滚轮事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1937,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1661,7 +2043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1726,6 +2108,56 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20332,7 +20764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S117"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
@@ -23158,8 +23590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23416,13 +23848,416 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E7:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:7" ht="30.75" customHeight="1">
+      <c r="E7" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="48"/>
+      <c r="F8" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="48"/>
+      <c r="F9" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="24">
+      <c r="E10" s="48"/>
+      <c r="F10" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" s="48"/>
+      <c r="F11" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" s="48"/>
+      <c r="F12" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" s="48"/>
+      <c r="F13" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" s="48"/>
+      <c r="F15" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" s="48"/>
+      <c r="F16" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="48"/>
+      <c r="F17" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="51"/>
+      <c r="F19" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="51"/>
+      <c r="F20" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="51"/>
+      <c r="F21" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="51"/>
+      <c r="F22" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" ht="18.75" customHeight="1">
+      <c r="E23" s="51"/>
+      <c r="F23" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="51"/>
+      <c r="F24" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="51"/>
+      <c r="F25" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="51"/>
+      <c r="F26" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" s="51"/>
+      <c r="F27" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="86.25" customHeight="1">
+      <c r="E28" s="52"/>
+      <c r="F28" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" s="48"/>
+      <c r="F30" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" s="48"/>
+      <c r="F31" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" ht="90" customHeight="1">
+      <c r="E32" s="48"/>
+      <c r="F32" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="48"/>
+      <c r="F33" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="32.25" customHeight="1">
+      <c r="E34" s="49"/>
+      <c r="F34" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="48"/>
+      <c r="F36" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="48"/>
+      <c r="F37" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="48"/>
+      <c r="F38" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" s="48"/>
+      <c r="F39" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="48"/>
+      <c r="F40" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" s="48"/>
+      <c r="F41" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="33" customHeight="1">
+      <c r="E42" s="49"/>
+      <c r="F42" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="5:7" ht="16.5" customHeight="1">
+      <c r="E43" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="48"/>
+      <c r="F44" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" s="48"/>
+      <c r="F45" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="81.75" customHeight="1">
+      <c r="E46" s="48"/>
+      <c r="F46" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="24">
+      <c r="E47" s="48"/>
+      <c r="F47" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" ht="36">
+      <c r="E48" s="49"/>
+      <c r="F48" s="42" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/jsSummary.xlsx
+++ b/assets/jsSummary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文件函数等命名规范" sheetId="5" r:id="rId1"/>
@@ -2085,6 +2085,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2109,38 +2135,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2149,6 +2143,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -19622,7 +19622,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>pffsetParent:</a:t>
+            <a:t>offsetParent:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -20495,10 +20495,10 @@
       </c>
     </row>
     <row r="31" spans="4:8" ht="17.100000000000001" customHeight="1">
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="37" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -20506,15 +20506,15 @@
       </c>
     </row>
     <row r="32" spans="4:8" ht="17.100000000000001" customHeight="1">
-      <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D33" s="29"/>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="37" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -20522,29 +20522,29 @@
       </c>
     </row>
     <row r="34" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D37" s="29"/>
-      <c r="E37" s="27" t="s">
+      <c r="D37" s="39"/>
+      <c r="E37" s="37" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -20552,36 +20552,36 @@
       </c>
     </row>
     <row r="38" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
       <c r="F38" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="4:6" ht="17.100000000000001" customHeight="1">
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="2" t="s">
         <v>86</v>
       </c>
@@ -20764,8 +20764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S117"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView topLeftCell="G34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22031,7 +22031,7 @@
       <c r="N53" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="O53" s="31" t="s">
+      <c r="O53" s="41" t="s">
         <v>251</v>
       </c>
       <c r="P53" s="5"/>
@@ -22060,7 +22060,7 @@
       <c r="N54" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="O54" s="32"/>
+      <c r="O54" s="42"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -22087,7 +22087,7 @@
       <c r="N55" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="O55" s="32"/>
+      <c r="O55" s="42"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -22114,7 +22114,7 @@
       <c r="N56" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="O56" s="32"/>
+      <c r="O56" s="42"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -22141,7 +22141,7 @@
       <c r="N57" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O57" s="33"/>
+      <c r="O57" s="43"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -22168,7 +22168,7 @@
       <c r="N58" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="O58" s="34" t="s">
+      <c r="O58" s="44" t="s">
         <v>264</v>
       </c>
       <c r="P58" s="5"/>
@@ -22197,7 +22197,7 @@
       <c r="N59" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="O59" s="34"/>
+      <c r="O59" s="44"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -23082,10 +23082,10 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="30" t="s">
+      <c r="K96" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="L96" s="30"/>
+      <c r="L96" s="40"/>
       <c r="M96" s="5"/>
       <c r="N96" s="3" t="s">
         <v>215</v>
@@ -23590,7 +23590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -23850,7 +23850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -23862,105 +23862,105 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:7" ht="30.75" customHeight="1">
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="27" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="8" spans="5:7">
-      <c r="E8" s="48"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="28" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="9" spans="5:7">
-      <c r="E9" s="48"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="28" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="5:7" ht="24">
-      <c r="E10" s="48"/>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="29" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="11" spans="5:7">
-      <c r="E11" s="48"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="30" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="12" spans="5:7">
-      <c r="E12" s="48"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="28" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="13" spans="5:7">
-      <c r="E13" s="48"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="46"/>
+      <c r="F13" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="28" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="14" spans="5:7">
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="27" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="15" spans="5:7">
-      <c r="E15" s="48"/>
-      <c r="F15" s="36" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="28" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="16" spans="5:7">
-      <c r="E16" s="48"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="28" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="48"/>
-      <c r="F17" s="37" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="29" t="s">
         <v>372</v>
       </c>
     </row>
@@ -23968,106 +23968,106 @@
       <c r="E18" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="28" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="51"/>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="28" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="51"/>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="29" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="51"/>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="27" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="51"/>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="28" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="23" spans="5:7" ht="18.75" customHeight="1">
       <c r="E23" s="51"/>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="28" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="51"/>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="29" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="51"/>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="27" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="51"/>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="28" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="51"/>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="28" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="28" spans="5:7" ht="86.25" customHeight="1">
       <c r="E28" s="52"/>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="G28" s="41"/>
+      <c r="G28" s="49"/>
     </row>
     <row r="29" spans="5:7">
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="28" t="s">
         <v>399</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -24075,8 +24075,8 @@
       </c>
     </row>
     <row r="30" spans="5:7">
-      <c r="E30" s="48"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="28" t="s">
         <v>400</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -24084,8 +24084,8 @@
       </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="48"/>
-      <c r="F31" s="36" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="28" t="s">
         <v>401</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -24093,15 +24093,15 @@
       </c>
     </row>
     <row r="32" spans="5:7" ht="90" customHeight="1">
-      <c r="E32" s="48"/>
-      <c r="F32" s="40" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="G32" s="41"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="48"/>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="32" t="s">
         <v>406</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -24109,142 +24109,145 @@
       </c>
     </row>
     <row r="34" spans="5:7" ht="32.25" customHeight="1">
-      <c r="E34" s="49"/>
-      <c r="F34" s="40" t="s">
+      <c r="E34" s="47"/>
+      <c r="F34" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="G34" s="41"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="28" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="48"/>
-      <c r="F36" s="42" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="28" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="48"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="28" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="48"/>
-      <c r="F38" s="42" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="G38" s="36" t="s">
+      <c r="G38" s="28" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="48"/>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="28" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="48"/>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="28" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="48"/>
-      <c r="F41" s="42" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="G41" s="36" t="s">
+      <c r="G41" s="28" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="5:7" ht="33" customHeight="1">
-      <c r="E42" s="49"/>
-      <c r="F42" s="40" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="5:7" ht="16.5" customHeight="1">
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="32" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="48"/>
-      <c r="F44" s="42" t="s">
+      <c r="E44" s="46"/>
+      <c r="F44" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="G44" s="42" t="s">
+      <c r="G44" s="32" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="48"/>
-      <c r="F45" s="42" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="G45" s="32" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="46" spans="5:7" ht="81.75" customHeight="1">
-      <c r="E46" s="48"/>
-      <c r="F46" s="43" t="s">
+      <c r="E46" s="46"/>
+      <c r="F46" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="G46" s="44" t="s">
+      <c r="G46" s="34" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="47" spans="5:7" ht="24">
-      <c r="E47" s="48"/>
-      <c r="F47" s="42" t="s">
+      <c r="E47" s="46"/>
+      <c r="F47" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="35" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="48" spans="5:7" ht="36">
-      <c r="E48" s="49"/>
-      <c r="F48" s="42" t="s">
+      <c r="E48" s="47"/>
+      <c r="F48" s="32" t="s">
         <v>436</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="36" t="s">
         <v>437</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E28"/>
     <mergeCell ref="E29:E34"/>
     <mergeCell ref="E35:E42"/>
     <mergeCell ref="E43:E48"/>
@@ -24252,9 +24255,6 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/jsSummary.xlsx
+++ b/assets/jsSummary.xlsx
@@ -19875,6 +19875,495 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1526242</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="14125576"/>
+          <a:ext cx="878542" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>offsetLeft</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1143000" y="16154400"/>
+          <a:ext cx="5657850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="13735050"/>
+          <a:ext cx="0" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1457325" y="15325725"/>
+          <a:ext cx="9525" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2971801</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接连接符 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="13249275"/>
+          <a:ext cx="1" cy="4029075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3000375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="16516350"/>
+          <a:ext cx="1419225" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2962275</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6610350" y="16563975"/>
+          <a:ext cx="1028700" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1200149</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819649" y="16430626"/>
+          <a:ext cx="1057275" cy="257174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>offsetWidth</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>392767</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="14849474"/>
+          <a:ext cx="1230967" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>offsetHeight</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23590,8 +24079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
